--- a/matrici_adiacenza_retiFR.xlsx
+++ b/matrici_adiacenza_retiFR.xlsx
@@ -550,61 +550,61 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -614,62 +614,62 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -679,62 +679,62 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -744,62 +744,62 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -809,62 +809,62 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -874,62 +874,62 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -939,62 +939,62 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1004,62 +1004,62 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1069,62 +1069,62 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1134,62 +1134,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1199,62 +1199,62 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1264,62 +1264,62 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1329,62 +1329,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1394,62 +1394,62 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1459,62 +1459,62 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1524,62 +1524,62 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1589,62 +1589,62 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1654,62 +1654,62 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1719,62 +1719,62 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1784,61 +1784,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr"/>
     </row>
@@ -1971,13 +1971,13 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1989,43 +1989,43 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2054,43 +2054,43 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2103,11 +2103,11 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2119,43 +2119,43 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2184,43 +2184,43 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2233,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -2249,43 +2249,43 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2314,34 +2314,34 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2379,43 +2379,43 @@
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2447,40 +2447,40 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2511,41 +2511,41 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2558,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2576,41 +2576,41 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2623,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2641,41 +2641,41 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2706,41 +2706,41 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2753,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2771,41 +2771,41 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2818,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2836,41 +2836,41 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -2901,41 +2901,41 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2948,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -2966,41 +2966,41 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3013,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -3031,41 +3031,41 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3078,13 +3078,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -3096,41 +3096,41 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3143,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -3161,41 +3161,41 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3208,13 +3208,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -3226,37 +3226,37 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -3392,61 +3392,61 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3456,62 +3456,62 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3521,62 +3521,62 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3586,62 +3586,62 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3651,62 +3651,62 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3716,62 +3716,62 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3781,62 +3781,62 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3846,62 +3846,62 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3911,62 +3911,62 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3976,62 +3976,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4041,62 +4041,62 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4106,62 +4106,62 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4171,62 +4171,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4236,62 +4236,62 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4301,62 +4301,62 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4366,62 +4366,62 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4431,62 +4431,62 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4496,62 +4496,62 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4561,62 +4561,62 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4626,61 +4626,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr"/>
     </row>
@@ -4813,13 +4813,13 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4831,43 +4831,43 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4896,43 +4896,43 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4945,11 +4945,11 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4961,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4973,31 +4973,31 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5026,43 +5026,43 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5075,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -5091,43 +5091,43 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5140,13 +5140,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5156,10 +5156,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -5171,28 +5171,28 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5205,13 +5205,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5221,34 +5221,34 @@
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5270,13 +5270,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5289,40 +5289,40 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5335,13 +5335,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -5353,41 +5353,41 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5400,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5418,41 +5418,41 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5465,13 +5465,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5483,41 +5483,41 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5530,13 +5530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -5548,41 +5548,41 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5595,13 +5595,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5613,41 +5613,41 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5660,13 +5660,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5678,41 +5678,41 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5725,13 +5725,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5743,41 +5743,41 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5790,13 +5790,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5808,41 +5808,41 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5855,13 +5855,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -5873,41 +5873,41 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5920,13 +5920,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5938,41 +5938,41 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5985,13 +5985,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -6003,41 +6003,41 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -6050,13 +6050,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -6068,37 +6068,37 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -6234,61 +6234,61 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6298,62 +6298,62 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6363,62 +6363,62 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6428,62 +6428,62 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6493,62 +6493,62 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6558,62 +6558,62 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6623,62 +6623,62 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6688,62 +6688,62 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6753,62 +6753,62 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6818,62 +6818,62 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6883,62 +6883,62 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6948,62 +6948,62 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7013,62 +7013,62 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7078,62 +7078,62 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7143,62 +7143,62 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7208,62 +7208,62 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7273,62 +7273,62 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7338,62 +7338,62 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7403,62 +7403,62 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7468,61 +7468,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21" t="inlineStr"/>
     </row>
@@ -7655,13 +7655,13 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -7673,43 +7673,43 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7738,43 +7738,43 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7787,11 +7787,11 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7803,10 +7803,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7868,43 +7868,43 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7917,13 +7917,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -7951,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -8112,16 +8112,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8131,40 +8131,40 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -8177,13 +8177,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -8195,41 +8195,41 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -8242,13 +8242,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -8260,10 +8260,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
@@ -8273,28 +8273,28 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -8325,41 +8325,41 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8372,13 +8372,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -8390,41 +8390,41 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -8434,16 +8434,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -8455,41 +8455,41 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8502,13 +8502,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -8520,41 +8520,41 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8567,13 +8567,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -8585,41 +8585,41 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8632,13 +8632,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -8650,41 +8650,41 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -8694,16 +8694,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -8715,41 +8715,41 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -8762,13 +8762,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -8780,41 +8780,41 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -8827,13 +8827,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -8863,19 +8863,19 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
@@ -8892,13 +8892,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -8910,37 +8910,37 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -9159,10 +9159,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -9174,16 +9174,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -9307,13 +9307,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9598,13 +9598,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -9626,19 +9626,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -9759,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9780,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -9793,13 +9793,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -9885,32 +9885,32 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -9956,26 +9956,26 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -9988,7 +9988,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -10018,29 +10018,29 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -10086,17 +10086,17 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -10154,13 +10154,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -10343,10 +10343,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -10580,10 +10580,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -10728,13 +10728,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -10988,7 +10988,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -11019,13 +11019,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -11047,19 +11047,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -11201,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -11214,13 +11214,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -11306,32 +11306,32 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -11377,26 +11377,26 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -11430,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -11439,29 +11439,29 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -11507,17 +11507,17 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -11575,13 +11575,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
@@ -11740,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -11755,7 +11755,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -11764,10 +11764,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
